--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H2">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J2">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>355.9796295727436</v>
+        <v>1923.515077271096</v>
       </c>
       <c r="R2">
-        <v>355.9796295727436</v>
+        <v>17311.63569543987</v>
       </c>
       <c r="S2">
-        <v>0.05102117145041886</v>
+        <v>0.1704036534764422</v>
       </c>
       <c r="T2">
-        <v>0.05102117145041886</v>
+        <v>0.1704036534764422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H3">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J3">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>397.7004146625093</v>
+        <v>1718.104574291988</v>
       </c>
       <c r="R3">
-        <v>397.7004146625093</v>
+        <v>15462.9411686279</v>
       </c>
       <c r="S3">
-        <v>0.05700084880349063</v>
+        <v>0.1522063954545648</v>
       </c>
       <c r="T3">
-        <v>0.05700084880349063</v>
+        <v>0.1522063954545648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.475799922328131</v>
+        <v>36.35426266666666</v>
       </c>
       <c r="H4">
-        <v>8.475799922328131</v>
+        <v>109.062788</v>
       </c>
       <c r="I4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="J4">
-        <v>0.1402384697779166</v>
+        <v>0.4094848412143908</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>224.777272682768</v>
+        <v>980.6419603261928</v>
       </c>
       <c r="R4">
-        <v>224.777272682768</v>
+        <v>8825.777642935736</v>
       </c>
       <c r="S4">
-        <v>0.03221644952400714</v>
+        <v>0.08687479228338386</v>
       </c>
       <c r="T4">
-        <v>0.03221644952400714</v>
+        <v>0.08687479228338386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H5">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J5">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>1879.616141995514</v>
+        <v>2387.072194831853</v>
       </c>
       <c r="R5">
-        <v>1879.616141995514</v>
+        <v>21483.64975348668</v>
       </c>
       <c r="S5">
-        <v>0.2693980483007694</v>
+        <v>0.2114700466442191</v>
       </c>
       <c r="T5">
-        <v>0.2693980483007694</v>
+        <v>0.2114700466442191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H6">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J6">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>2099.907008654289</v>
+        <v>2132.158830241289</v>
       </c>
       <c r="R6">
-        <v>2099.907008654289</v>
+        <v>19189.4294721716</v>
       </c>
       <c r="S6">
-        <v>0.3009714787530923</v>
+        <v>0.1888873441952055</v>
       </c>
       <c r="T6">
-        <v>0.3009714787530923</v>
+        <v>0.1888873441952055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.7532640265214</v>
+        <v>45.11545066666667</v>
       </c>
       <c r="H7">
-        <v>44.7532640265214</v>
+        <v>135.346352</v>
       </c>
       <c r="I7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="J7">
-        <v>0.7404763352321463</v>
+        <v>0.5081685556916724</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>1186.85159202887</v>
+        <v>1216.971566399705</v>
       </c>
       <c r="R7">
-        <v>1186.85159202887</v>
+        <v>10952.74409759735</v>
       </c>
       <c r="S7">
-        <v>0.1701068081782847</v>
+        <v>0.1078111648522478</v>
       </c>
       <c r="T7">
-        <v>0.1701068081782847</v>
+        <v>0.1078111648522478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H8">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J8">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>302.7920911663924</v>
+        <v>386.8151312842282</v>
       </c>
       <c r="R8">
-        <v>302.7920911663924</v>
+        <v>3481.336181558054</v>
       </c>
       <c r="S8">
-        <v>0.04339800908207429</v>
+        <v>0.03426784243579508</v>
       </c>
       <c r="T8">
-        <v>0.04339800908207429</v>
+        <v>0.03426784243579508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H9">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J9">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>338.279300863183</v>
+        <v>345.5074796749944</v>
       </c>
       <c r="R9">
-        <v>338.279300863183</v>
+        <v>3109.56731707495</v>
       </c>
       <c r="S9">
-        <v>0.04848425239439541</v>
+        <v>0.0306084093313082</v>
       </c>
       <c r="T9">
-        <v>0.04848425239439541</v>
+        <v>0.0306084093313082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.20941584738978</v>
+        <v>7.310771333333334</v>
       </c>
       <c r="H10">
-        <v>7.20941584738978</v>
+        <v>21.932314</v>
       </c>
       <c r="I10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="J10">
-        <v>0.1192851949899371</v>
+        <v>0.0823466030939367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>191.1929076503117</v>
+        <v>197.2051860204565</v>
       </c>
       <c r="R10">
-        <v>191.1929076503117</v>
+        <v>1774.846674184108</v>
       </c>
       <c r="S10">
-        <v>0.02740293351346741</v>
+        <v>0.01747035132683342</v>
       </c>
       <c r="T10">
-        <v>0.02740293351346741</v>
+        <v>0.01747035132683342</v>
       </c>
     </row>
   </sheetData>
